--- a/Modbus Codes.xlsx
+++ b/Modbus Codes.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$45</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="124">
   <si>
     <t xml:space="preserve">Slave ID (HEX)</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t xml:space="preserve">00 6E 00 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possible Heater Heartbeat – Need to check frequency</t>
   </si>
   <si>
     <t xml:space="preserve">0 9B 0 2 4 XX YY
@@ -534,7 +537,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Sent when viewing module info. Version: </t>
+      <t xml:space="preserve">Version: </t>
     </r>
     <r>
       <rPr>
@@ -568,6 +571,15 @@
       </rPr>
       <t xml:space="preserve"> XX-ZZ-WW-YY-QQ-UU</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">03 E4 00 06 CRC: 93 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0A VV VV VV VV ZZ XX YY WW UU QQ 00 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as above, only seen during testing with control panel alone with wifi module</t>
   </si>
   <si>
     <t xml:space="preserve">5 D8 0 23 46 0 1 0 49 50 55 54 53 49 41 53 52 0 0 0 0 0 0 0 0 0 0 0 0 4F 44 4F 44 4E 57 54 53 49 41 53 52 0 0 0 0 0 0 0 0 0 0 4F 5A 4F 5A 45 4E 33 20 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4F 5A</t>
@@ -905,79 +917,79 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1283,10 +1295,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1513,7 +1525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1578,9 +1590,11 @@
       <c r="F13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1594,13 +1608,13 @@
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,13 +1628,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -1635,16 +1649,16 @@
         <v>7</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,15 +1669,15 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,16 +1691,16 @@
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,16 +1714,16 @@
         <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,21 +1737,21 @@
         <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>3</v>
@@ -1747,31 +1761,31 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>3</v>
@@ -1783,16 +1797,16 @@
         <v>24</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>10</v>
@@ -1804,56 +1818,56 @@
         <v>24</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>10</v>
@@ -1865,18 +1879,18 @@
         <v>24</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>3</v>
@@ -1885,21 +1899,21 @@
         <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="275.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="B29" s="9" t="n">
         <v>3</v>
@@ -1908,21 +1922,21 @@
         <v>7</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="9" t="n">
         <v>3</v>
@@ -1932,12 +1946,12 @@
       <c r="E30" s="9"/>
       <c r="F30" s="11"/>
       <c r="G30" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>3</v>
@@ -1946,44 +1960,36 @@
         <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>89</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>10</v>
@@ -1992,21 +1998,21 @@
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>10</v>
@@ -2015,21 +2021,21 @@
         <v>7</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>10</v>
@@ -2038,21 +2044,21 @@
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>10</v>
@@ -2061,21 +2067,21 @@
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>10</v>
@@ -2084,21 +2090,21 @@
         <v>7</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>10</v>
@@ -2107,21 +2113,21 @@
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>10</v>
@@ -2130,97 +2136,101 @@
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="12" t="n">
+      <c r="B40" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="12" t="s">
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="233.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="15" t="n">
+      <c r="B41" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="15" t="s">
+      <c r="C41" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="B42" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
+      <c r="F42" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
+      <c r="G42" s="17" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>3</v>
@@ -2230,32 +2240,48 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B45" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="18"/>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="18"/>
@@ -2270,10 +2296,13 @@
       <c r="E50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="19"/>
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G45"/>
+  <autoFilter ref="A1:G46"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
